--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.998902333333333</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H2">
-        <v>11.996707</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I2">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J2">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1900966666666667</v>
+        <v>0.1199136666666667</v>
       </c>
       <c r="N2">
-        <v>0.57029</v>
+        <v>0.359741</v>
       </c>
       <c r="O2">
-        <v>0.05523110599154212</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="P2">
-        <v>0.05523110599154211</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="Q2">
-        <v>0.7601780038922221</v>
+        <v>0.3154584018064445</v>
       </c>
       <c r="R2">
-        <v>6.841602035029999</v>
+        <v>2.839125616258</v>
       </c>
       <c r="S2">
-        <v>0.02735757775794577</v>
+        <v>0.01371827407429304</v>
       </c>
       <c r="T2">
-        <v>0.02735757775794577</v>
+        <v>0.01371827407429304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.998902333333333</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H3">
-        <v>11.996707</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I3">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J3">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,25 +620,25 @@
         <v>0.247271</v>
       </c>
       <c r="N3">
-        <v>0.7418129999999999</v>
+        <v>0.7418130000000001</v>
       </c>
       <c r="O3">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="P3">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="Q3">
-        <v>0.9888125788656665</v>
+        <v>0.6504989517993335</v>
       </c>
       <c r="R3">
-        <v>8.899313209790998</v>
+        <v>5.854490566194001</v>
       </c>
       <c r="S3">
-        <v>0.03558576659130446</v>
+        <v>0.02828811296425357</v>
       </c>
       <c r="T3">
-        <v>0.03558576659130446</v>
+        <v>0.02828811296425357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.998902333333333</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H4">
-        <v>11.996707</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I4">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J4">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05333966666666667</v>
+        <v>0.355759</v>
       </c>
       <c r="N4">
-        <v>0.160019</v>
+        <v>1.067277</v>
       </c>
       <c r="O4">
-        <v>0.0154974247306819</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="P4">
-        <v>0.01549742473068189</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="Q4">
-        <v>0.2133001174925555</v>
+        <v>0.9358997075806668</v>
       </c>
       <c r="R4">
-        <v>1.919701057433</v>
+        <v>8.423097368226001</v>
       </c>
       <c r="S4">
-        <v>0.007676326492221017</v>
+        <v>0.04069927642161793</v>
       </c>
       <c r="T4">
-        <v>0.007676326492221016</v>
+        <v>0.04069927642161793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.998902333333333</v>
+        <v>2.630712666666667</v>
       </c>
       <c r="H5">
-        <v>11.996707</v>
+        <v>7.892138000000001</v>
       </c>
       <c r="I5">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="J5">
-        <v>0.4953291676276626</v>
+        <v>0.3947434022685045</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.951133333333333</v>
+        <v>2.727572666666667</v>
       </c>
       <c r="N5">
-        <v>8.853400000000001</v>
+        <v>8.182718000000001</v>
       </c>
       <c r="O5">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="P5">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="Q5">
-        <v>11.80129397264444</v>
+        <v>7.17545996345378</v>
       </c>
       <c r="R5">
-        <v>106.2116457538</v>
+        <v>64.57913967108402</v>
       </c>
       <c r="S5">
-        <v>0.4247094967861914</v>
+        <v>0.31203773880834</v>
       </c>
       <c r="T5">
-        <v>0.4247094967861914</v>
+        <v>0.31203773880834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>11.97933</v>
       </c>
       <c r="I6">
-        <v>0.4946116928284643</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="J6">
-        <v>0.4946116928284644</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1900966666666667</v>
+        <v>0.1199136666666667</v>
       </c>
       <c r="N6">
-        <v>0.57029</v>
+        <v>0.359741</v>
       </c>
       <c r="O6">
-        <v>0.05523110599154212</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="P6">
-        <v>0.05523110599154211</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="Q6">
-        <v>0.7590769006333333</v>
+        <v>0.4788284615033333</v>
       </c>
       <c r="R6">
-        <v>6.8316921057</v>
+        <v>4.30945615353</v>
       </c>
       <c r="S6">
-        <v>0.02731795083126499</v>
+        <v>0.02082271396754604</v>
       </c>
       <c r="T6">
-        <v>0.02731795083126499</v>
+        <v>0.02082271396754604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.97933</v>
       </c>
       <c r="I7">
-        <v>0.4946116928284643</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="J7">
-        <v>0.4946116928284644</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,25 +868,25 @@
         <v>0.247271</v>
       </c>
       <c r="N7">
-        <v>0.7418129999999999</v>
+        <v>0.7418130000000001</v>
       </c>
       <c r="O7">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="P7">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="Q7">
-        <v>0.98738030281</v>
+        <v>0.9873803028100001</v>
       </c>
       <c r="R7">
-        <v>8.88642272529</v>
+        <v>8.886422725290002</v>
       </c>
       <c r="S7">
-        <v>0.03553422129091019</v>
+        <v>0.04293800238618125</v>
       </c>
       <c r="T7">
-        <v>0.0355342212909102</v>
+        <v>0.04293800238618125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>11.97933</v>
       </c>
       <c r="I8">
-        <v>0.4946116928284643</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="J8">
-        <v>0.4946116928284644</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.05333966666666667</v>
+        <v>0.355759</v>
       </c>
       <c r="N8">
-        <v>0.160019</v>
+        <v>1.067277</v>
       </c>
       <c r="O8">
-        <v>0.0154974247306819</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="P8">
-        <v>0.01549742473068189</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="Q8">
-        <v>0.2129911563633334</v>
+        <v>1.42058482049</v>
       </c>
       <c r="R8">
-        <v>1.91692040727</v>
+        <v>12.78526338441</v>
       </c>
       <c r="S8">
-        <v>0.00766520748052428</v>
+        <v>0.06177667737383459</v>
       </c>
       <c r="T8">
-        <v>0.007665207480524281</v>
+        <v>0.06177667737383459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.97933</v>
       </c>
       <c r="I9">
-        <v>0.4946116928284643</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="J9">
-        <v>0.4946116928284644</v>
+        <v>0.5991736942634763</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.951133333333333</v>
+        <v>2.727572666666667</v>
       </c>
       <c r="N9">
-        <v>8.853400000000001</v>
+        <v>8.182718000000001</v>
       </c>
       <c r="O9">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="P9">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="Q9">
-        <v>11.78420002466667</v>
+        <v>10.89149769099333</v>
       </c>
       <c r="R9">
-        <v>106.057800222</v>
+        <v>98.02347921894003</v>
       </c>
       <c r="S9">
-        <v>0.4240943132257649</v>
+        <v>0.4736363005359144</v>
       </c>
       <c r="T9">
-        <v>0.4240943132257649</v>
+        <v>0.4736363005359144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08120966666666667</v>
+        <v>0.04053866666666667</v>
       </c>
       <c r="H10">
-        <v>0.243629</v>
+        <v>0.121616</v>
       </c>
       <c r="I10">
-        <v>0.01005913954387315</v>
+        <v>0.00608290346801924</v>
       </c>
       <c r="J10">
-        <v>0.01005913954387315</v>
+        <v>0.006082903468019241</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1900966666666667</v>
+        <v>0.1199136666666667</v>
       </c>
       <c r="N10">
-        <v>0.57029</v>
+        <v>0.359741</v>
       </c>
       <c r="O10">
-        <v>0.05523110599154212</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="P10">
-        <v>0.05523110599154211</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="Q10">
-        <v>0.01543768693444444</v>
+        <v>0.004861140161777778</v>
       </c>
       <c r="R10">
-        <v>0.13893918241</v>
+        <v>0.043750261456</v>
       </c>
       <c r="S10">
-        <v>0.0005555774023313706</v>
+        <v>0.0002113953937221095</v>
       </c>
       <c r="T10">
-        <v>0.0005555774023313705</v>
+        <v>0.0002113953937221095</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08120966666666667</v>
+        <v>0.04053866666666667</v>
       </c>
       <c r="H11">
-        <v>0.243629</v>
+        <v>0.121616</v>
       </c>
       <c r="I11">
-        <v>0.01005913954387315</v>
+        <v>0.00608290346801924</v>
       </c>
       <c r="J11">
-        <v>0.01005913954387315</v>
+        <v>0.006082903468019241</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,25 +1116,25 @@
         <v>0.247271</v>
       </c>
       <c r="N11">
-        <v>0.7418129999999999</v>
+        <v>0.7418130000000001</v>
       </c>
       <c r="O11">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="P11">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="Q11">
-        <v>0.02008079548633333</v>
+        <v>0.01002403664533333</v>
       </c>
       <c r="R11">
-        <v>0.180727159377</v>
+        <v>0.09021632980800001</v>
       </c>
       <c r="S11">
-        <v>0.0007226753749068737</v>
+        <v>0.0004359132020069418</v>
       </c>
       <c r="T11">
-        <v>0.0007226753749068737</v>
+        <v>0.0004359132020069419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08120966666666667</v>
+        <v>0.04053866666666667</v>
       </c>
       <c r="H12">
-        <v>0.243629</v>
+        <v>0.121616</v>
       </c>
       <c r="I12">
-        <v>0.01005913954387315</v>
+        <v>0.00608290346801924</v>
       </c>
       <c r="J12">
-        <v>0.01005913954387315</v>
+        <v>0.006082903468019241</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.05333966666666667</v>
+        <v>0.355759</v>
       </c>
       <c r="N12">
-        <v>0.160019</v>
+        <v>1.067277</v>
       </c>
       <c r="O12">
-        <v>0.0154974247306819</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="P12">
-        <v>0.01549742473068189</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="Q12">
-        <v>0.004331696550111112</v>
+        <v>0.01442199551466667</v>
       </c>
       <c r="R12">
-        <v>0.038985268951</v>
+        <v>0.129797959632</v>
       </c>
       <c r="S12">
-        <v>0.0001558907579366</v>
+        <v>0.0006271663269562043</v>
       </c>
       <c r="T12">
-        <v>0.0001558907579365999</v>
+        <v>0.0006271663269562044</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08120966666666667</v>
+        <v>0.04053866666666667</v>
       </c>
       <c r="H13">
-        <v>0.243629</v>
+        <v>0.121616</v>
       </c>
       <c r="I13">
-        <v>0.01005913954387315</v>
+        <v>0.00608290346801924</v>
       </c>
       <c r="J13">
-        <v>0.01005913954387315</v>
+        <v>0.006082903468019241</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.951133333333333</v>
+        <v>2.727572666666667</v>
       </c>
       <c r="N13">
-        <v>8.853400000000001</v>
+        <v>8.182718000000001</v>
       </c>
       <c r="O13">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="P13">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="Q13">
-        <v>0.2396605542888889</v>
+        <v>0.1105721591431111</v>
       </c>
       <c r="R13">
-        <v>2.1569449886</v>
+        <v>0.9951494322880001</v>
       </c>
       <c r="S13">
-        <v>0.008624996008698305</v>
+        <v>0.004808428545333985</v>
       </c>
       <c r="T13">
-        <v>0.008624996008698305</v>
+        <v>0.004808428545333985</v>
       </c>
     </row>
   </sheetData>
